--- a/Ind_Customer_Month.xlsx
+++ b/Ind_Customer_Month.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>An Individual Customer's Average Daily Load Profile Usage for January 2023</t>
+    <t>An Individual Customer's Average Daily Load Profile Usage for April 2023</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0005806451612903226</v>
+        <v>0.0001025641033333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0007123297580645162</v>
+        <v>0.00046923077</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.001167240132258065</v>
+        <v>0.00066923077</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.003180017229032259</v>
+        <v>0.00173588818</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0003092286483870968</v>
+        <v>0.0006359066933333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0002446229387096774</v>
+        <v>0.00036923077</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0006960477225806452</v>
+        <v>0.0003691289466666666</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.0004382788</v>
+        <v>0.00011257172</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0004898691741935483</v>
+        <v>0.0001125282133333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.0008123655903225805</v>
+        <v>0.00014579674</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0008768817193548389</v>
+        <v>0.00031253746</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.0006510752677419354</v>
+        <v>0.0003125004333333334</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.001002688170967742</v>
+        <v>0.00047911156</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0006129032258064516</v>
+        <v>0.0002458893066666667</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.001</v>
+        <v>0.0004791671</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0009354749129032259</v>
+        <v>0.0009999629733333335</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.005579426841935485</v>
+        <v>0.004998648476666668</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01822194470322581</v>
+        <v>0.00696624977</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01468233812903226</v>
+        <v>0.005771035503333335</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.00735485667419355</v>
+        <v>0.00256923077</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.002516236529032258</v>
+        <v>0.00026923077</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.0008064964032258064</v>
+        <v>6.923077E-05</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.0007741935483870968</v>
+        <v>3.589743666666667E-05</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.0003870967741935484</v>
+        <v>2.564103333333334E-06</v>
       </c>
     </row>
   </sheetData>

--- a/Ind_Customer_Month.xlsx
+++ b/Ind_Customer_Month.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>An Individual Customer's Average Daily Load Profile Usage for April 2023</t>
+    <t>An Individual Customer's Average Daily Load Profile Usage for March 2025</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0001025641033333333</v>
+        <v>0.0007346346064516128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.00046923077</v>
+        <v>0.000508684864516129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.00066923077</v>
+        <v>0.0002828067483870968</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.00173588818</v>
+        <v>0.0002506920129032259</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0006359066933333333</v>
+        <v>0.0001861042193548387</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.00036923077</v>
+        <v>0.0002183622838709678</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0003691289466666666</v>
+        <v>0.0002506203483870968</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.00011257172</v>
+        <v>0.0002506203483870968</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0001125282133333333</v>
+        <v>0.0003870967741935484</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.00014579674</v>
+        <v>0.0003870967741935484</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.00031253746</v>
+        <v>0.0003870967741935484</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.0003125004333333334</v>
+        <v>0.0005161290322580645</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.00047911156</v>
+        <v>0.0006451612903225806</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0002458893066666667</v>
+        <v>0.0006129032258064517</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.0004791671</v>
+        <v>0.0006450717096774194</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0009999629733333335</v>
+        <v>0.0006452508709677419</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.004998648476666668</v>
+        <v>0.0004193010903225807</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.00696624977</v>
+        <v>0.0003870878161290323</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.005771035503333335</v>
+        <v>0.0005806272225806452</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.00256923077</v>
+        <v>0.0007097580645161291</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.00026923077</v>
+        <v>0.0007096774193548386</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>6.923077E-05</v>
+        <v>0.0006129032258064516</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3.589743666666667E-05</v>
+        <v>0.0005806451612903226</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.564103333333334E-06</v>
+        <v>0.000709534129032258</v>
       </c>
     </row>
   </sheetData>
